--- a/biology/Médecine/Impédancemétrie_(ORL)/Impédancemétrie_(ORL).xlsx
+++ b/biology/Médecine/Impédancemétrie_(ORL)/Impédancemétrie_(ORL).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Imp%C3%A9dancem%C3%A9trie_(ORL)</t>
+          <t>Impédancemétrie_(ORL)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En ORL, l’impédancemétrie est un examen qui enregistre plusieurs graphiques, pour traduire le degré de souplesse du tympan selon la pression atmosphérique et les sons reçus. L’impédance du tympan est son degré de rigidité.
 L’impédancemétrie se base sur deux tests : la tympanométrie et la recherche des réflexes stapédiens.
@@ -497,7 +509,7 @@
 S’il est présent mais seulement pour des sons faibles c'est une atteinte de l'oreille interne.
 L'étude du réflexe stapédien est donc utile afin de déterminer la localisation des atteintes.
 Source
-[1],[2]
+,
 </t>
         </is>
       </c>
